--- a/mini project_v6.xlsx
+++ b/mini project_v6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkbay\Downloads\mini project\Chem_Prj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\CODE\Chem_Prj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE125FB7-20A1-420C-A3A9-6846B848F055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1390972-5347-4210-B320-46B77E2C04B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{C0E51F9F-0EF3-4649-B3DA-DCC0F43E4D3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0E51F9F-0EF3-4649-B3DA-DCC0F43E4D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <t>CCOCOCC</t>
   </si>
   <si>
-    <t>Diethyl Ether (C4H10O1)</t>
-  </si>
-  <si>
     <t>CCOCC</t>
   </si>
   <si>
@@ -1453,7 +1450,10 @@
     <t>LiBOB-LiNO3-LiFSI-TEEME-MTEE (1-1.2-3-1-2 mol)</t>
   </si>
   <si>
-    <t>LiFSI-DME-MTEE-DEC-PC-Diethyl Ether (1-1-3-2-1-1 mol)</t>
+    <t>LiFSI-DME-MTEE-DEC-PC-DiethylEther (1-1-3-2-1-1 mol)</t>
+  </si>
+  <si>
+    <t>DiethylEther (C4H10O1)</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1681,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1697,7 +1697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2015,38 +2015,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08D659-F60F-4950-81DE-BB3B5803FFEB}">
   <dimension ref="A1:CG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1015625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.89453125" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -2067,7 +2067,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>12</v>
@@ -2151,141 +2151,141 @@
         <v>46</v>
       </c>
       <c r="AP1" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ1" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AR1" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS1" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT1" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU1" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV1" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW1" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA1" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="BC1" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="BD1" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="BE1" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="AR1" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="AS1" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="AT1" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="AU1" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="AV1" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW1" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
+      <c r="BF1" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="BG1" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH1" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="BA1" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="BB1" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="BC1" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="BD1" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="BE1" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF1" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG1" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH1" s="40" t="s">
-        <v>354</v>
-      </c>
       <c r="BI1" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="BQ1" s="41" t="s">
         <v>59</v>
       </c>
       <c r="BR1" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="BS1" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT1" s="41" t="s">
         <v>318</v>
-      </c>
-      <c r="BS1" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="BT1" s="41" t="s">
-        <v>319</v>
       </c>
       <c r="BU1" s="41" t="s">
         <v>58</v>
       </c>
       <c r="BV1" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="BW1" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX1" s="41" t="s">
         <v>321</v>
-      </c>
-      <c r="BW1" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="BX1" s="41" t="s">
-        <v>322</v>
       </c>
       <c r="BY1" s="41" t="s">
         <v>62</v>
       </c>
       <c r="BZ1" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="CA1" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="CB1" s="41" t="s">
         <v>324</v>
-      </c>
-      <c r="CA1" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="CB1" s="41" t="s">
-        <v>325</v>
       </c>
       <c r="CC1" s="41" t="s">
         <v>63</v>
       </c>
       <c r="CD1" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="CE1" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF1" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="CE1" s="41" t="s">
+      <c r="CG1" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="CF1" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="CG1" s="41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="1">
         <v>1.3851027839668653</v>
@@ -2297,7 +2297,7 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -2386,9 +2386,9 @@
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1">
         <v>1.838631997765023</v>
@@ -2400,7 +2400,7 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2489,9 +2489,9 @@
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="1">
         <v>2.0861861476162842</v>
@@ -2503,7 +2503,7 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -2592,9 +2592,9 @@
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1">
         <v>2.0757207139381144</v>
@@ -2606,7 +2606,7 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2695,9 +2695,9 @@
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="1">
         <v>2.2757241303992135</v>
@@ -2709,7 +2709,7 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -2800,9 +2800,9 @@
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1">
         <v>2.7447274948966882</v>
@@ -2814,7 +2814,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -2905,9 +2905,9 @@
       <c r="CF7" s="1"/>
       <c r="CG7" s="1"/>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" s="1">
         <v>2.5228787452803374</v>
@@ -2919,7 +2919,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -3010,9 +3010,9 @@
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B9" s="1">
         <v>2.3187587626244106</v>
@@ -3024,7 +3024,7 @@
         <v>0.1</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -3115,9 +3115,9 @@
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" s="1">
         <v>2.4202164033831997</v>
@@ -3129,7 +3129,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -3220,9 +3220,9 @@
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" s="1">
         <v>2.2596373105057603</v>
@@ -3234,7 +3234,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -3325,9 +3325,9 @@
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B12" s="1">
         <v>2.3187587626244106</v>
@@ -3339,7 +3339,7 @@
         <v>0.1</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -3430,9 +3430,9 @@
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B13" s="1">
         <v>2.3010299956639808</v>
@@ -3444,7 +3444,7 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -3535,9 +3535,9 @@
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14" s="1">
         <v>2.2518119729937958</v>
@@ -3549,7 +3549,7 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -3640,9 +3640,9 @@
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15" s="1">
         <v>2.1135092748275222</v>
@@ -3654,7 +3654,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -3743,9 +3743,9 @@
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B16" s="1">
         <v>2.3010299956639808</v>
@@ -3757,7 +3757,7 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -3846,9 +3846,9 @@
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B17" s="1">
         <v>2.2839966563652023</v>
@@ -3860,7 +3860,7 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -3949,9 +3949,9 @@
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B18" s="1">
         <v>2.0555173278498353</v>
@@ -3963,7 +3963,7 @@
         <v>0.1</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -4052,9 +4052,9 @@
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B19" s="1">
         <v>2.5376020021010417</v>
@@ -4066,7 +4066,7 @@
         <v>0.1</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -4157,9 +4157,9 @@
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B20" s="1">
         <v>2.5376020021010417</v>
@@ -4171,7 +4171,7 @@
         <v>0.1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -4262,9 +4262,9 @@
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B21" s="1">
         <v>2.5086383061657287</v>
@@ -4276,7 +4276,7 @@
         <v>0.1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -4367,9 +4367,9 @@
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B22" s="1">
         <v>2.3665315444204054</v>
@@ -4381,7 +4381,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -4472,9 +4472,9 @@
       <c r="CF22" s="1"/>
       <c r="CG22" s="1"/>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B23" s="1">
         <v>2.4317982759330006</v>
@@ -4486,7 +4486,7 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -4577,9 +4577,9 @@
       <c r="CF23" s="1"/>
       <c r="CG23" s="1"/>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" s="1">
         <v>2.4089353929734991</v>
@@ -4591,7 +4591,7 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -4682,9 +4682,9 @@
       <c r="CF24" s="1"/>
       <c r="CG24" s="1"/>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B25" s="1">
         <v>2.4948500216800968</v>
@@ -4696,7 +4696,7 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -4787,9 +4787,9 @@
       <c r="CF25" s="1"/>
       <c r="CG25" s="1"/>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B26" s="1">
         <v>2.4089353929734991</v>
@@ -4801,7 +4801,7 @@
         <v>0.1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -4892,9 +4892,9 @@
       <c r="CF26" s="1"/>
       <c r="CG26" s="1"/>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B27" s="1">
         <v>2.2146701649892333</v>
@@ -4906,7 +4906,7 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -4997,9 +4997,9 @@
       <c r="CF27" s="1"/>
       <c r="CG27" s="1"/>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B28" s="1">
         <v>1.7055337738384084</v>
@@ -5011,7 +5011,7 @@
         <v>0.1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -5100,9 +5100,9 @@
       <c r="CF28" s="1"/>
       <c r="CG28" s="1"/>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B29" s="1">
         <v>1.7746907182741363</v>
@@ -5114,7 +5114,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -5203,9 +5203,9 @@
       <c r="CF29" s="1"/>
       <c r="CG29" s="1"/>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B30" s="1">
         <v>2.2218487496163641</v>
@@ -5217,7 +5217,7 @@
         <v>0.1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -5306,9 +5306,9 @@
       <c r="CF30" s="1"/>
       <c r="CG30" s="1"/>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B31" s="1">
         <v>2.0132282657337535</v>
@@ -5320,7 +5320,7 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -5409,9 +5409,9 @@
       <c r="CF31" s="1"/>
       <c r="CG31" s="1"/>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B32" s="1">
         <v>2.3767507096021014</v>
@@ -5423,7 +5423,7 @@
         <v>0.1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -5514,9 +5514,9 @@
       <c r="CF32" s="1"/>
       <c r="CG32" s="1"/>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B33" s="1">
         <v>2.5228787452803374</v>
@@ -5528,7 +5528,7 @@
         <v>0.1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -5619,9 +5619,9 @@
       <c r="CF33" s="1"/>
       <c r="CG33" s="1"/>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B34" s="1">
         <v>2.4317982759330006</v>
@@ -5633,7 +5633,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -5724,9 +5724,9 @@
       <c r="CF34" s="1"/>
       <c r="CG34" s="1"/>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B35" s="1">
         <v>2.2757241303992135</v>
@@ -5738,7 +5738,7 @@
         <v>0.1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -5829,9 +5829,9 @@
       <c r="CF35" s="1"/>
       <c r="CG35" s="1"/>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B36" s="1">
         <v>2.3279021420642789</v>
@@ -5843,7 +5843,7 @@
         <v>0.1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -5934,9 +5934,9 @@
       <c r="CF36" s="1"/>
       <c r="CG36" s="1"/>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B37" s="1">
         <v>2.4089353929734991</v>
@@ -5948,7 +5948,7 @@
         <v>0.1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -6039,9 +6039,9 @@
       <c r="CF37" s="1"/>
       <c r="CG37" s="1"/>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B38" s="1">
         <v>2.3098039199714946</v>
@@ -6053,7 +6053,7 @@
         <v>0.1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -6144,9 +6144,9 @@
       <c r="CF38" s="1"/>
       <c r="CG38" s="1"/>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B39" s="1">
         <v>2.1739251972991709</v>
@@ -6158,7 +6158,7 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -6249,9 +6249,9 @@
       <c r="CF39" s="1"/>
       <c r="CG39" s="1"/>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B40" s="1">
         <v>2.0655015487564352</v>
@@ -6263,7 +6263,7 @@
         <v>0.1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -6354,9 +6354,9 @@
       <c r="CF40" s="1"/>
       <c r="CG40" s="1"/>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B41" s="1">
         <v>1.9318141382538367</v>
@@ -6368,7 +6368,7 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -6457,9 +6457,9 @@
       <c r="CF41" s="1"/>
       <c r="CG41" s="1"/>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B42" s="1">
         <v>2.1739251972991709</v>
@@ -6471,7 +6471,7 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -6560,9 +6560,9 @@
       <c r="CF42" s="1"/>
       <c r="CG42" s="1"/>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B43" s="1">
         <v>2.1611509092627434</v>
@@ -6574,7 +6574,7 @@
         <v>0.1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -6663,9 +6663,9 @@
       <c r="CF43" s="1"/>
       <c r="CG43" s="1"/>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" s="1">
         <v>2.1739251972991709</v>
@@ -6677,7 +6677,7 @@
         <v>0.1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -6766,9 +6766,9 @@
       <c r="CF44" s="1"/>
       <c r="CG44" s="1"/>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B45" s="1">
         <v>2.2757241303992135</v>
@@ -6780,7 +6780,7 @@
         <v>0.1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -6871,9 +6871,9 @@
       <c r="CF45" s="1"/>
       <c r="CG45" s="1"/>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B46" s="1">
         <v>2.3187587626244106</v>
@@ -6885,7 +6885,7 @@
         <v>0.1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -6976,9 +6976,9 @@
       <c r="CF46" s="1"/>
       <c r="CG46" s="1"/>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B47" s="1">
         <v>2.3872161432802654</v>
@@ -6990,7 +6990,7 @@
         <v>0.1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -7081,9 +7081,9 @@
       <c r="CF47" s="1"/>
       <c r="CG47" s="1"/>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B48" s="1">
         <v>2.2596373105057603</v>
@@ -7095,7 +7095,7 @@
         <v>0.1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -7186,9 +7186,9 @@
       <c r="CF48" s="1"/>
       <c r="CG48" s="1"/>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B49" s="1">
         <v>2.2676062401770256</v>
@@ -7200,7 +7200,7 @@
         <v>0.1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -7291,9 +7291,9 @@
       <c r="CF49" s="1"/>
       <c r="CG49" s="1"/>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B50" s="1">
         <v>1.9172146296835539</v>
@@ -7305,7 +7305,7 @@
         <v>0.1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -7396,9 +7396,9 @@
       <c r="CF50" s="1"/>
       <c r="CG50" s="1"/>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B51" s="1">
         <v>2.2839966563652023</v>
@@ -7410,7 +7410,7 @@
         <v>0.1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -7501,9 +7501,9 @@
       <c r="CF51" s="1"/>
       <c r="CG51" s="1"/>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B52" s="1">
         <v>2.2518119729937958</v>
@@ -7515,7 +7515,7 @@
         <v>0.1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -7606,9 +7606,9 @@
       <c r="CF52" s="1"/>
       <c r="CG52" s="1"/>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="1">
         <v>2.1366771398795392</v>
@@ -7620,7 +7620,7 @@
         <v>0.1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -7711,9 +7711,9 @@
       <c r="CF53" s="1"/>
       <c r="CG53" s="1"/>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B54" s="1">
         <v>1.6595558851598811</v>
@@ -7725,7 +7725,7 @@
         <v>0.1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -7814,9 +7814,9 @@
       <c r="CF54" s="1"/>
       <c r="CG54" s="1"/>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B55" s="1">
         <v>1.9355420107730836</v>
@@ -7828,7 +7828,7 @@
         <v>0.1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -7917,9 +7917,9 @@
       <c r="CF55" s="1"/>
       <c r="CG55" s="1"/>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" s="1">
         <v>1.4056074496245721</v>
@@ -7931,7 +7931,7 @@
         <v>0.1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -8020,9 +8020,9 @@
       <c r="CF56" s="1"/>
       <c r="CG56" s="1"/>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B57" s="1">
         <v>1.6073030467403353</v>
@@ -8034,7 +8034,7 @@
         <v>0.1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -8123,9 +8123,9 @@
       <c r="CF57" s="1"/>
       <c r="CG57" s="1"/>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B58" s="1">
         <v>1.6903698325740995</v>
@@ -8137,7 +8137,7 @@
         <v>0.1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -8226,9 +8226,9 @@
       <c r="CF58" s="1"/>
       <c r="CG58" s="1"/>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B59" s="1">
         <v>2.4202164033831997</v>
@@ -8240,7 +8240,7 @@
         <v>0.1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -8329,9 +8329,9 @@
       <c r="CF59" s="1"/>
       <c r="CG59" s="1"/>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" s="1">
         <v>2.455931955649731</v>
@@ -8343,7 +8343,7 @@
         <v>0.1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -8432,9 +8432,9 @@
       <c r="CF60" s="1"/>
       <c r="CG60" s="1"/>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" s="1">
         <v>1.9706162223147932</v>
@@ -8446,7 +8446,7 @@
         <v>0.1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -8535,9 +8535,9 @@
       <c r="CF61" s="1"/>
       <c r="CG61" s="1"/>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B62" s="1">
         <v>1.6270879970298942</v>
@@ -8549,7 +8549,7 @@
         <v>0.1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -8640,9 +8640,9 @@
       <c r="CF62" s="1"/>
       <c r="CG62" s="1"/>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B63" s="1">
         <v>1.8961962790440454</v>
@@ -8654,7 +8654,7 @@
         <v>0.1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -8745,9 +8745,9 @@
       <c r="CF63" s="1"/>
       <c r="CG63" s="1"/>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B64" s="1">
         <v>1.6073030467403353</v>
@@ -8759,7 +8759,7 @@
         <v>0.1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -8850,9 +8850,9 @@
       <c r="CF64" s="1"/>
       <c r="CG64" s="1"/>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B65" s="1">
         <v>1.4948500216800937</v>
@@ -8864,7 +8864,7 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -8955,9 +8955,9 @@
       <c r="CF65" s="1"/>
       <c r="CG65" s="1"/>
     </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B66" s="1">
         <v>1.0259490972071224</v>
@@ -8969,7 +8969,7 @@
         <v>0.1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -9060,9 +9060,9 @@
       <c r="CF66" s="1"/>
       <c r="CG66" s="1"/>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B67" s="1">
         <v>0.93479387194568775</v>
@@ -9074,7 +9074,7 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -9165,9 +9165,9 @@
       <c r="CF67" s="1"/>
       <c r="CG67" s="1"/>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B68" s="1">
         <v>1.8728952016351899</v>
@@ -9179,7 +9179,7 @@
         <v>0.1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -9270,9 +9270,9 @@
       <c r="CF68" s="1"/>
       <c r="CG68" s="1"/>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B69" s="1">
         <v>1.7569619513137065</v>
@@ -9284,7 +9284,7 @@
         <v>0.1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -9375,9 +9375,9 @@
       <c r="CF69" s="1"/>
       <c r="CG69" s="1"/>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B70" s="1">
         <v>0.52592949678495626</v>
@@ -9389,7 +9389,7 @@
         <v>0.1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -9480,9 +9480,9 @@
       <c r="CF70" s="1"/>
       <c r="CG70" s="1"/>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B71" s="1">
         <v>1.8996294548824353</v>
@@ -9494,7 +9494,7 @@
         <v>0.1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -9585,9 +9585,9 @@
       <c r="CF71" s="1"/>
       <c r="CG71" s="1"/>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B72" s="1">
         <v>1.6252516539898951</v>
@@ -9599,7 +9599,7 @@
         <v>0.1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -9690,9 +9690,9 @@
       <c r="CF72" s="1"/>
       <c r="CG72" s="1"/>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B73" s="1">
         <v>1.7328282715969872</v>
@@ -9704,7 +9704,7 @@
         <v>0.1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -9795,9 +9795,9 @@
       <c r="CF73" s="1"/>
       <c r="CG73" s="1"/>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B74" s="1">
         <v>1.838631997765023</v>
@@ -9809,7 +9809,7 @@
         <v>0.3</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -9900,9 +9900,9 @@
       <c r="CF74" s="1"/>
       <c r="CG74" s="1"/>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B75" s="1">
         <v>1.7328282715969872</v>
@@ -9914,7 +9914,7 @@
         <v>0.3</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -10005,9 +10005,9 @@
       <c r="CF75" s="1"/>
       <c r="CG75" s="1"/>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B76" s="1">
         <v>1.9208187539523749</v>
@@ -10019,7 +10019,7 @@
         <v>0.3</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -10110,9 +10110,9 @@
       <c r="CF76" s="1"/>
       <c r="CG76" s="1"/>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B77" s="1">
         <v>0.99139982823808248</v>
@@ -10124,7 +10124,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -10209,9 +10209,9 @@
       <c r="CF77" s="1"/>
       <c r="CG77" s="1"/>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B78" s="1">
         <v>1.0132282657337552</v>
@@ -10223,7 +10223,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -10308,9 +10308,9 @@
       <c r="CF78" s="1"/>
       <c r="CG78" s="1"/>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="1">
         <v>0.85387196432176193</v>
@@ -10322,7 +10322,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -10407,9 +10407,9 @@
       <c r="CF79" s="1"/>
       <c r="CG79" s="1"/>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B80" s="1">
         <v>1.5686362358410122</v>
@@ -10421,7 +10421,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -10506,9 +10506,9 @@
       <c r="CF80" s="1"/>
       <c r="CG80" s="1"/>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B81" s="1">
         <v>1.6020599913279621</v>
@@ -10520,7 +10520,7 @@
         <v>0.1125</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -10605,9 +10605,9 @@
       <c r="CF81" s="1"/>
       <c r="CG81" s="1"/>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B82" s="1">
         <v>1.6020599913279621</v>
@@ -10619,7 +10619,7 @@
         <v>0.1125</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -10704,9 +10704,9 @@
       <c r="CF82" s="1"/>
       <c r="CG82" s="1"/>
     </row>
-    <row r="83" spans="1:85" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:85" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B83" s="44">
         <v>0.25414480482627105</v>
@@ -10718,15 +10718,15 @@
         <v>7.575757575757576E-2</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F83" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B84">
         <v>0.26760624017703144</v>
@@ -10738,13 +10738,13 @@
         <v>5.3333333333333337E-2</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -10758,15 +10758,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B86">
         <v>0.17392519729917361</v>
@@ -10778,15 +10778,15 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B87">
         <v>1.0457574905606752</v>
@@ -10798,15 +10798,15 @@
         <v>0.2</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88">
         <v>1.3010299956639808</v>
@@ -10818,15 +10818,15 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B89">
         <v>1.3187587626244135</v>
@@ -10838,15 +10838,15 @@
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B90">
         <v>1.3187587626244135</v>
@@ -10858,15 +10858,15 @@
         <v>1</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B91">
         <v>1.7212463990471707</v>
@@ -10878,15 +10878,15 @@
         <v>0.1</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B92">
         <v>1.4436974992327136</v>
@@ -10898,15 +10898,15 @@
         <v>0.1</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B93">
         <v>2.2218487496163641</v>
@@ -10918,15 +10918,15 @@
         <v>0.1</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B94">
         <v>2.1549019599857426</v>
@@ -10938,15 +10938,15 @@
         <v>0.1</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B95">
         <v>2.1549019599857426</v>
@@ -10958,15 +10958,15 @@
         <v>0.1</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B96">
         <v>2.3010299956639808</v>
@@ -10978,15 +10978,15 @@
         <v>0.1</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B97">
         <v>2.3010299956639808</v>
@@ -10998,15 +10998,15 @@
         <v>0.1</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B98">
         <v>1.7447274948966935</v>
@@ -11018,15 +11018,15 @@
         <v>0.05</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B99">
         <v>1.3372421683184266</v>
@@ -11038,15 +11038,15 @@
         <v>0.4</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B100">
         <v>1.5528419686577803</v>
@@ -11058,13 +11058,13 @@
         <v>0.44</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -11078,13 +11078,13 @@
         <v>0.11</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -11098,13 +11098,13 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -11118,13 +11118,13 @@
         <v>0.23157894736842105</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -11138,13 +11138,13 @@
         <v>0.11</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -11158,15 +11158,15 @@
         <v>0.11578947368421053</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F105" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B106" s="1">
         <v>1.6000255918069497</v>
@@ -11178,15 +11178,15 @@
         <v>0.11764705882352941</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B107" s="1">
         <v>1.6000255918069497</v>
@@ -11198,15 +11198,15 @@
         <v>0.12429378531073447</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108" s="1">
         <v>1.3896452415144069</v>
@@ -11218,15 +11218,15 @@
         <v>0.22</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B109" s="1">
         <v>1.6667046450034941</v>
@@ -11238,15 +11238,15 @@
         <v>0.16</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B110" s="1">
         <v>1.47090388016236</v>
@@ -11258,15 +11258,15 @@
         <v>0.13793103448275862</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B111" s="1">
         <v>1.4031278884050893</v>
@@ -11278,15 +11278,15 @@
         <v>8.1632653061224483E-2</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B112" s="1">
         <v>1.4182521740971312</v>
@@ -11298,13 +11298,13 @@
         <v>0.11290322580645161</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -11318,13 +11318,13 @@
         <v>0.1</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -11338,13 +11338,13 @@
         <v>0.1</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
@@ -11358,13 +11358,13 @@
         <v>0.1</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
@@ -11378,15 +11378,15 @@
         <v>0.1</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B117" s="1">
         <v>2.1739251972991709</v>
@@ -11398,15 +11398,15 @@
         <v>0.1</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B118" s="1">
         <v>1.8860566476931628</v>
@@ -11418,15 +11418,15 @@
         <v>0.1</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B119" s="1">
         <v>2.2441251443275143</v>
@@ -11438,15 +11438,15 @@
         <v>0.1</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F119" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B120" s="1">
         <v>2.2146701649892333</v>
@@ -11458,15 +11458,15 @@
         <v>0.1</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B121" s="1">
         <v>2.0222763947111493</v>
@@ -11478,15 +11478,15 @@
         <v>0.1</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B122" s="1">
         <v>2.0457574905606748</v>
@@ -11498,7 +11498,7 @@
         <v>0.1</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F122" s="1">
         <v>1</v>
@@ -11515,51 +11515,51 @@
   <dimension ref="A1:AN137"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="1"/>
-    <col min="2" max="2" width="34.41796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.3125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.89453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5234375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.41796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7890625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.20703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" style="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="1" customWidth="1"/>
-    <col min="14" max="18" width="4.7890625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.89453125" style="7"/>
+    <col min="14" max="18" width="4.77734375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="7"/>
     <col min="21" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.89453125" style="12"/>
-    <col min="23" max="23" width="8.1015625" style="10" customWidth="1"/>
-    <col min="24" max="24" width="9.20703125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="10.89453125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="10.89453125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="12"/>
+    <col min="23" max="23" width="8.109375" style="10" customWidth="1"/>
+    <col min="24" max="24" width="9.21875" style="15" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" style="11" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" style="10" customWidth="1"/>
     <col min="27" max="27" width="11" style="9" customWidth="1"/>
-    <col min="28" max="28" width="12.20703125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="12.21875" style="9" customWidth="1"/>
     <col min="29" max="29" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.89453125" style="8"/>
-    <col min="31" max="33" width="8.89453125" style="1"/>
-    <col min="34" max="34" width="6.7890625" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="8"/>
+    <col min="31" max="33" width="8.88671875" style="1"/>
+    <col min="34" max="34" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.89453125" style="1"/>
-    <col min="38" max="38" width="9.20703125" style="15" customWidth="1"/>
-    <col min="39" max="40" width="6.68359375" style="15" customWidth="1"/>
-    <col min="41" max="16384" width="8.89453125" style="1"/>
+    <col min="36" max="37" width="8.88671875" style="1"/>
+    <col min="38" max="38" width="9.21875" style="15" customWidth="1"/>
+    <col min="39" max="40" width="6.6640625" style="15" customWidth="1"/>
+    <col min="41" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>39</v>
@@ -11613,7 +11613,7 @@
         <v>55</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U1" s="19" t="s">
         <v>56</v>
@@ -11647,7 +11647,7 @@
       <c r="AM1" s="13"/>
       <c r="AN1" s="13"/>
     </row>
-    <row r="2" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -12008,12 +12008,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -12063,7 +12063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -12696,12 +12696,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>469</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -12745,15 +12745,15 @@
         <v>11.76807</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -12800,15 +12800,15 @@
         <v>8.5724139999999984</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
@@ -12852,15 +12852,15 @@
         <v>17.516898000000001</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -12904,15 +12904,15 @@
         <v>10.359242</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -12956,15 +12956,15 @@
         <v>13.50407</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
@@ -13011,15 +13011,15 @@
         <v>34.963312000000002</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -13066,15 +13066,15 @@
         <v>30.950483999999989</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -13118,15 +13118,15 @@
         <v>12.963241999999999</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
@@ -13170,15 +13170,15 @@
         <v>18.712070000000001</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -13222,15 +13222,15 @@
         <v>11.497655999999999</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -13274,15 +13274,15 @@
         <v>13.774483999999999</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -13326,15 +13326,15 @@
         <v>15.510484</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -13381,15 +13381,15 @@
         <v>10.577242</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -13442,15 +13442,15 @@
         <v>17.724242</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -13494,15 +13494,15 @@
         <v>15.780898000000001</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -13549,18 +13549,18 @@
         <v>19.311862999999999</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL37"/>
       <c r="AM37"/>
       <c r="AN37"/>
     </row>
-    <row r="38" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -13604,15 +13604,15 @@
         <v>10.629656000000001</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -13656,15 +13656,15 @@
         <v>8.3528279999999988</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -13708,18 +13708,18 @@
         <v>25.542553999999999</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL40"/>
       <c r="AM40"/>
       <c r="AN40"/>
     </row>
-    <row r="41" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -13763,15 +13763,15 @@
         <v>15.240069999999999</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -13815,15 +13815,15 @@
         <v>12.365656</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -13870,15 +13870,15 @@
         <v>12.042828</v>
       </c>
       <c r="AC43" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
@@ -13925,15 +13925,15 @@
         <v>14.701449</v>
       </c>
       <c r="AC44" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="1">
         <v>6</v>
@@ -13980,15 +13980,15 @@
         <v>17.846277000000001</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1">
         <v>6</v>
@@ -14035,15 +14035,15 @@
         <v>17.95607</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="1">
         <v>6</v>
@@ -14090,15 +14090,15 @@
         <v>18.065863</v>
       </c>
       <c r="AC47" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="1">
         <v>6</v>
@@ -14145,15 +14145,15 @@
         <v>18.175656</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" s="1">
         <v>6</v>
@@ -14197,15 +14197,15 @@
         <v>6.1290349999999991</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" s="1">
         <v>6</v>
@@ -14249,15 +14249,15 @@
         <v>6.2388279999999989</v>
       </c>
       <c r="AC50" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1">
         <v>6</v>
@@ -14301,15 +14301,15 @@
         <v>6.2388279999999989</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1">
         <v>6</v>
@@ -14353,15 +14353,15 @@
         <v>6.2388279999999989</v>
       </c>
       <c r="AC52" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="1">
         <v>6</v>
@@ -14405,15 +14405,15 @@
         <v>6.3486209999999996</v>
       </c>
       <c r="AC53" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1">
         <v>6</v>
@@ -14457,15 +14457,15 @@
         <v>6.3486209999999996</v>
       </c>
       <c r="AC54" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" s="1">
         <v>6</v>
@@ -14509,15 +14509,15 @@
         <v>12.148277</v>
       </c>
       <c r="AC55" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" s="1">
         <v>4</v>
@@ -14567,15 +14567,15 @@
         <v>11.936242</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="1">
         <v>6</v>
@@ -14622,15 +14622,15 @@
         <v>17.95607</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1">
         <v>8</v>
@@ -14674,15 +14674,15 @@
         <v>22.408069999999999</v>
       </c>
       <c r="AC58" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
@@ -14729,15 +14729,15 @@
         <v>8.4626209999999986</v>
       </c>
       <c r="AC59" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="1">
         <v>4</v>
@@ -14784,15 +14784,15 @@
         <v>12.475448999999999</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61" s="1">
         <v>5</v>
@@ -14836,15 +14836,15 @@
         <v>12.148277</v>
       </c>
       <c r="AC61" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
@@ -14897,15 +14897,15 @@
         <v>15.498241999999999</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -14949,15 +14949,15 @@
         <v>8.6232419999999994</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -14998,18 +14998,18 @@
         <v>14.044898</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL64"/>
       <c r="AM64"/>
       <c r="AN64"/>
     </row>
-    <row r="65" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1">
         <v>5</v>
@@ -15053,18 +15053,18 @@
         <v>10.800621</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL65"/>
       <c r="AM65"/>
       <c r="AN65"/>
     </row>
-    <row r="66" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1">
         <v>5</v>
@@ -15108,15 +15108,15 @@
         <v>11.76807</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="1">
         <v>5</v>
@@ -15160,18 +15160,18 @@
         <v>13.50407</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL67"/>
       <c r="AM67"/>
       <c r="AN67"/>
     </row>
-    <row r="68" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
@@ -15215,15 +15215,15 @@
         <v>10.629656000000001</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1">
         <v>7</v>
@@ -15270,15 +15270,15 @@
         <v>38.70572600000002</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" s="1">
         <v>4</v>
@@ -15325,15 +15325,15 @@
         <v>10.959035</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1">
         <v>4</v>
@@ -15377,15 +15377,15 @@
         <v>10.359242</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
@@ -15429,15 +15429,15 @@
         <v>5.586034999999999</v>
       </c>
       <c r="AC72" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1">
         <v>4</v>
@@ -15481,15 +15481,15 @@
         <v>10.581035</v>
       </c>
       <c r="AC73" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C74" s="1">
         <v>10</v>
@@ -15533,15 +15533,15 @@
         <v>17.191312</v>
       </c>
       <c r="AC74" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" s="1">
         <v>4</v>
@@ -15588,15 +15588,15 @@
         <v>14.681656</v>
       </c>
       <c r="AC75" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" s="1">
         <v>12</v>
@@ -15640,15 +15640,15 @@
         <v>28.79658899999999</v>
       </c>
       <c r="AC76" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
@@ -15692,15 +15692,15 @@
         <v>4.0464140000000004</v>
       </c>
       <c r="AC77" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="1">
         <v>10</v>
@@ -15744,15 +15744,15 @@
         <v>30.750554000000001</v>
       </c>
       <c r="AC78" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="1">
         <v>6</v>
@@ -15799,15 +15799,15 @@
         <v>28.964105</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
@@ -15853,15 +15853,15 @@
         <v>11.827035</v>
       </c>
       <c r="AC80" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
@@ -15905,15 +15905,15 @@
         <v>9.7616559999999986</v>
       </c>
       <c r="AC81" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
@@ -15957,15 +15957,15 @@
         <v>11.76807</v>
       </c>
       <c r="AC82" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C83" s="1">
         <v>9</v>
@@ -16015,15 +16015,15 @@
         <v>75.824968000000069</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C84" s="1">
         <v>7</v>
@@ -16067,15 +16067,15 @@
         <v>21.259312000000001</v>
       </c>
       <c r="AC84" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C85" s="1">
         <v>8</v>
@@ -16119,15 +16119,15 @@
         <v>25.001726000000001</v>
       </c>
       <c r="AC85" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
@@ -16171,15 +16171,15 @@
         <v>9.5988629999999979</v>
       </c>
       <c r="AC86" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="1">
         <v>7</v>
@@ -16220,15 +16220,15 @@
         <v>8.0256559999999997</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C88" s="1">
         <v>6</v>
@@ -16278,15 +16278,15 @@
         <v>25.324242000000002</v>
       </c>
       <c r="AC88" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C89" s="1">
         <v>5</v>
@@ -16330,15 +16330,15 @@
         <v>9.5988629999999979</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" ht="12.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="12.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="1">
         <v>3</v>
@@ -16382,15 +16382,15 @@
         <v>6.3464139999999993</v>
       </c>
       <c r="AC90" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C91" s="1">
         <v>5</v>
@@ -16434,15 +16434,15 @@
         <v>10.359242</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C92" s="1">
         <v>5</v>
@@ -16489,15 +16489,15 @@
         <v>12.745863</v>
       </c>
       <c r="AC92" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93" s="1">
         <v>5</v>
@@ -16544,15 +16544,15 @@
         <v>12.965449</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C94" s="1">
         <v>5</v>
@@ -16599,15 +16599,15 @@
         <v>13.185034999999999</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" s="1">
         <v>8</v>
@@ -16654,15 +16654,15 @@
         <v>42.448140000000031</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C96" s="1">
         <v>5</v>
@@ -16709,15 +16709,15 @@
         <v>14.162827999999999</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="97" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" s="1">
         <v>5</v>
@@ -16764,15 +16764,15 @@
         <v>16.169242000000001</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
@@ -16819,15 +16819,15 @@
         <v>12.536621</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C99" s="1">
         <v>4</v>
@@ -16874,15 +16874,15 @@
         <v>12.426828</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>
@@ -16929,15 +16929,15 @@
         <v>12.536621</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
@@ -16984,15 +16984,15 @@
         <v>14.652828</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C102" s="1">
         <v>7</v>
@@ -17039,15 +17039,15 @@
         <v>19.104828000000001</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" s="1">
         <v>4</v>
@@ -17094,15 +17094,15 @@
         <v>12.536621</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="1">
         <v>4</v>
@@ -17149,15 +17149,15 @@
         <v>12.207242000000001</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C105" s="1">
         <v>7</v>
@@ -17201,15 +17201,15 @@
         <v>14.374276999999999</v>
       </c>
       <c r="AC105" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
@@ -17256,15 +17256,15 @@
         <v>12.426828</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:40" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:40" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C107" s="1">
         <v>6</v>
@@ -17311,18 +17311,18 @@
         <v>18.395242</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL107"/>
       <c r="AM107"/>
       <c r="AN107"/>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C108" s="1">
         <v>7</v>
@@ -17369,15 +17369,15 @@
         <v>22.247449</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F109" s="1">
         <v>4</v>
@@ -17394,12 +17394,12 @@
       </c>
       <c r="Z109" s="9"/>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C110" s="1">
         <v>4</v>
@@ -17419,12 +17419,12 @@
       </c>
       <c r="Z110" s="9"/>
     </row>
-    <row r="111" spans="1:40" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:40" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -17447,12 +17447,12 @@
       </c>
       <c r="Z111" s="9"/>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
@@ -17469,12 +17469,12 @@
       </c>
       <c r="Z112" s="9"/>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C113" s="1">
         <v>2</v>
@@ -17497,12 +17497,12 @@
       </c>
       <c r="Z113" s="9"/>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -17522,12 +17522,12 @@
       </c>
       <c r="Z114" s="9"/>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C115" s="1">
         <v>4</v>
@@ -17553,12 +17553,12 @@
       </c>
       <c r="Z115" s="9"/>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
@@ -17581,12 +17581,12 @@
       </c>
       <c r="Z116" s="9"/>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F117" s="1">
         <v>6</v>
@@ -17603,12 +17603,12 @@
       </c>
       <c r="Z117" s="9"/>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C118" s="1">
         <v>2</v>
@@ -17634,12 +17634,12 @@
       </c>
       <c r="Z118" s="9"/>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C119" s="1">
         <v>8</v>
@@ -17665,12 +17665,12 @@
       </c>
       <c r="Z119" s="9"/>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F120" s="1">
         <v>6</v>
@@ -17688,12 +17688,12 @@
       <c r="Z120" s="9"/>
       <c r="AD120" s="1"/>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F121" s="1">
         <v>6</v>
@@ -17711,12 +17711,12 @@
       <c r="Z121" s="9"/>
       <c r="AD121" s="1"/>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E122" s="1">
         <v>3</v>
@@ -17734,12 +17734,12 @@
       <c r="Z122" s="9"/>
       <c r="AD122" s="1"/>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C123" s="1">
         <v>4</v>
@@ -17766,12 +17766,12 @@
       <c r="Z123" s="9"/>
       <c r="AD123" s="1"/>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
@@ -17789,12 +17789,12 @@
       <c r="Z124" s="9"/>
       <c r="AD124" s="1"/>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F125" s="1">
         <v>6</v>
@@ -17812,12 +17812,12 @@
       <c r="Z125" s="9"/>
       <c r="AD125" s="1"/>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C126" s="1">
         <v>4</v>
@@ -17840,12 +17840,12 @@
       </c>
       <c r="Z126" s="9"/>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C127" s="1">
         <v>4</v>
@@ -17868,12 +17868,12 @@
       </c>
       <c r="Z127" s="9"/>
     </row>
-    <row r="128" spans="1:40" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:40" s="5" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C128" s="5">
         <v>3</v>
@@ -17920,7 +17920,7 @@
         <v>10.200828</v>
       </c>
       <c r="AC128" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD128" s="34"/>
       <c r="AH128" s="31"/>
@@ -17928,12 +17928,12 @@
       <c r="AM128" s="31"/>
       <c r="AN128" s="31"/>
     </row>
-    <row r="129" spans="1:40" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:40" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C129" s="5">
         <v>4</v>
@@ -17980,7 +17980,7 @@
         <v>12.207242000000001</v>
       </c>
       <c r="AC129" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD129" s="34"/>
       <c r="AH129" s="31"/>
@@ -17988,12 +17988,12 @@
       <c r="AM129" s="31"/>
       <c r="AN129" s="31"/>
     </row>
-    <row r="130" spans="1:40" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:40" s="5" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C130" s="5">
         <v>4</v>
@@ -18040,7 +18040,7 @@
         <v>12.536621</v>
       </c>
       <c r="AC130" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD130" s="34"/>
       <c r="AH130" s="31"/>
@@ -18048,12 +18048,12 @@
       <c r="AM130" s="31"/>
       <c r="AN130" s="31"/>
     </row>
-    <row r="131" spans="1:40" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:40" s="5" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C131" s="5">
         <v>4</v>
@@ -18100,7 +18100,7 @@
         <v>12.207242000000001</v>
       </c>
       <c r="AC131" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD131" s="34"/>
       <c r="AH131" s="31"/>
@@ -18108,12 +18108,12 @@
       <c r="AM131" s="31"/>
       <c r="AN131" s="31"/>
     </row>
-    <row r="132" spans="1:40" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:40" s="5" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C132" s="5">
         <v>4</v>
@@ -18160,7 +18160,7 @@
         <v>12.317035000000001</v>
       </c>
       <c r="AC132" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AD132" s="34"/>
       <c r="AH132" s="31"/>
@@ -18168,12 +18168,12 @@
       <c r="AM132" s="31"/>
       <c r="AN132" s="31"/>
     </row>
-    <row r="133" spans="1:40" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:40" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C133" s="5">
         <v>4</v>
@@ -18232,15 +18232,15 @@
         <v>12.536621</v>
       </c>
       <c r="AC133" s="35" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="134" spans="1:40" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:40" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C134" s="5">
         <v>4</v>
@@ -18299,15 +18299,15 @@
         <v>12.536621</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="135" spans="1:40" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:40" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -18354,15 +18354,15 @@
         <v>15.839862999999999</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="136" spans="1:40" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:40" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
@@ -18406,15 +18406,15 @@
         <v>11.76807</v>
       </c>
       <c r="AC136" s="18" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="137" spans="1:40" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:40" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C137" s="1">
         <v>4</v>
@@ -18461,7 +18461,7 @@
         <v>12.207242000000001</v>
       </c>
       <c r="AC137" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
